--- a/Code/Results/Cases/Case_5_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04911601560834</v>
+        <v>18.08625015614324</v>
       </c>
       <c r="C2">
-        <v>12.43122091442298</v>
+        <v>9.73871745288309</v>
       </c>
       <c r="D2">
-        <v>4.758305297469272</v>
+        <v>7.997305569775516</v>
       </c>
       <c r="E2">
-        <v>7.583746059099972</v>
+        <v>12.98521812365697</v>
       </c>
       <c r="F2">
-        <v>23.78851575382755</v>
+        <v>36.9053411195708</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.148323721304149</v>
+        <v>10.22553441222674</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.675145971838785</v>
+        <v>10.92129140794003</v>
       </c>
       <c r="M2">
-        <v>12.92276729078542</v>
+        <v>16.81086850035017</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.86119672746414</v>
+        <v>28.45777371119366</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67797993839951</v>
+        <v>17.64250469793256</v>
       </c>
       <c r="C3">
-        <v>11.91017985311508</v>
+        <v>9.515025990554125</v>
       </c>
       <c r="D3">
-        <v>4.70256411213734</v>
+        <v>7.999093464023402</v>
       </c>
       <c r="E3">
-        <v>7.671043968928205</v>
+        <v>13.02009814429155</v>
       </c>
       <c r="F3">
-        <v>23.72891438083311</v>
+        <v>37.04063133546499</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.210429091485278</v>
+        <v>10.24710118614294</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.558345118579756</v>
+        <v>10.91766058614509</v>
       </c>
       <c r="M3">
-        <v>12.32869039766822</v>
+        <v>16.70607724895474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.91056053023729</v>
+        <v>28.57547145604947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79466055418836</v>
+        <v>17.36624223006073</v>
       </c>
       <c r="C4">
-        <v>11.57885881090343</v>
+        <v>9.374347221146873</v>
       </c>
       <c r="D4">
-        <v>4.669270886588918</v>
+        <v>8.000850131172871</v>
       </c>
       <c r="E4">
-        <v>7.726659784694403</v>
+        <v>13.04269451355855</v>
       </c>
       <c r="F4">
-        <v>23.71713037442131</v>
+        <v>37.13270598905552</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.249634393439487</v>
+        <v>10.26102417996157</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.487518934918151</v>
+        <v>10.91645423496688</v>
       </c>
       <c r="M4">
-        <v>11.95246985135438</v>
+        <v>16.64321381675922</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.95957109765569</v>
+        <v>28.65438626626341</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42326501688328</v>
+        <v>17.25286273582088</v>
       </c>
       <c r="C5">
-        <v>11.44109961553857</v>
+        <v>9.316240138901346</v>
       </c>
       <c r="D5">
-        <v>4.655944845777442</v>
+        <v>8.001732233848356</v>
       </c>
       <c r="E5">
-        <v>7.749834669110196</v>
+        <v>13.05220020832665</v>
       </c>
       <c r="F5">
-        <v>23.71833217854627</v>
+        <v>37.17248566416499</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.265887218734048</v>
+        <v>10.26686966170448</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.458905682684718</v>
+        <v>10.91622105425597</v>
       </c>
       <c r="M5">
-        <v>11.79645785668097</v>
+        <v>16.61798642928891</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.98403565996755</v>
+        <v>28.68821249252099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36090637289114</v>
+        <v>17.23399251259568</v>
       </c>
       <c r="C6">
-        <v>11.41806310970851</v>
+        <v>9.306546200830589</v>
       </c>
       <c r="D6">
-        <v>4.653746830946419</v>
+        <v>8.001888763253007</v>
       </c>
       <c r="E6">
-        <v>7.753713831624013</v>
+        <v>13.05379661286609</v>
       </c>
       <c r="F6">
-        <v>23.718887351587</v>
+        <v>37.17922727479164</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.26860286907676</v>
+        <v>10.26785068826055</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.454170250575923</v>
+        <v>10.91619797577643</v>
       </c>
       <c r="M6">
-        <v>11.77039503187981</v>
+        <v>16.61382151245772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.98836320565831</v>
+        <v>28.69392992849943</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.78969800202887</v>
+        <v>17.36471618393417</v>
       </c>
       <c r="C7">
-        <v>11.57701187209864</v>
+        <v>9.373566644748927</v>
       </c>
       <c r="D7">
-        <v>4.669090181391987</v>
+        <v>8.000861353655706</v>
       </c>
       <c r="E7">
-        <v>7.726970254496782</v>
+        <v>13.04282150509225</v>
       </c>
       <c r="F7">
-        <v>23.71712258851774</v>
+        <v>37.13323333530997</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.24985245715067</v>
+        <v>10.26110231806805</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.487132005056029</v>
+        <v>10.91645004237555</v>
       </c>
       <c r="M7">
-        <v>11.9503764867195</v>
+        <v>16.64287198890554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.95988312204375</v>
+        <v>28.65483571090578</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58133054057033</v>
+        <v>17.93412649843779</v>
       </c>
       <c r="C8">
-        <v>12.25400008645011</v>
+        <v>9.662314023781489</v>
       </c>
       <c r="D8">
-        <v>4.738896436335733</v>
+        <v>7.997785624862069</v>
       </c>
       <c r="E8">
-        <v>7.613430941231229</v>
+        <v>12.99700034779674</v>
       </c>
       <c r="F8">
-        <v>23.76267639374027</v>
+        <v>36.95011639964408</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.169519212773214</v>
+        <v>10.2328296327119</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.634703352631796</v>
+        <v>10.91982790202491</v>
       </c>
       <c r="M8">
-        <v>12.72040711346113</v>
+        <v>16.77444057034848</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.87420903281975</v>
+        <v>28.4969738072995</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84545660847008</v>
+        <v>19.01415583286876</v>
       </c>
       <c r="C9">
-        <v>13.48665542254585</v>
+        <v>10.19972357362075</v>
       </c>
       <c r="D9">
-        <v>4.882879432757469</v>
+        <v>7.996957290825884</v>
       </c>
       <c r="E9">
-        <v>7.406560767929779</v>
+        <v>12.91647073980007</v>
       </c>
       <c r="F9">
-        <v>24.05896151436739</v>
+        <v>36.66274751145447</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.020174930519195</v>
+        <v>10.18276543148545</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.930069831864115</v>
+        <v>10.93451580147221</v>
       </c>
       <c r="M9">
-        <v>14.13298546019385</v>
+        <v>17.04336286279484</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.86403783592391</v>
+        <v>28.24032636897383</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0109697312425</v>
+        <v>19.77736692925929</v>
       </c>
       <c r="C10">
-        <v>14.32967314330116</v>
+        <v>10.57403431950749</v>
       </c>
       <c r="D10">
-        <v>4.992591701728698</v>
+        <v>7.999487087165324</v>
       </c>
       <c r="E10">
-        <v>7.263903336727677</v>
+        <v>12.86293971281622</v>
       </c>
       <c r="F10">
-        <v>24.41588053092081</v>
+        <v>36.49569197463768</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.914972188210074</v>
+        <v>10.14922801773621</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.149335685645458</v>
+        <v>10.95014996457146</v>
       </c>
       <c r="M10">
-        <v>15.10440865863082</v>
+        <v>17.24647410129744</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.96569786282723</v>
+        <v>28.08425919176366</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.94465517558938</v>
+        <v>20.11649095246739</v>
       </c>
       <c r="C11">
-        <v>14.69889530778415</v>
+        <v>10.73930793975749</v>
       </c>
       <c r="D11">
-        <v>5.043275829940281</v>
+        <v>8.001311853207616</v>
       </c>
       <c r="E11">
-        <v>7.200967594806016</v>
+        <v>12.83979961382783</v>
       </c>
       <c r="F11">
-        <v>24.61105611574626</v>
+        <v>36.42933460500375</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.867983403737162</v>
+        <v>10.13466829144124</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.249307099182467</v>
+        <v>10.95829715904492</v>
       </c>
       <c r="M11">
-        <v>15.53089180786922</v>
+        <v>17.33983062985391</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.03837666956346</v>
+        <v>28.02036374992895</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.29092627692338</v>
+        <v>20.24363613226985</v>
       </c>
       <c r="C12">
-        <v>14.83661758792451</v>
+        <v>10.80113195028817</v>
       </c>
       <c r="D12">
-        <v>5.062573794036219</v>
+        <v>8.002099062000861</v>
       </c>
       <c r="E12">
-        <v>7.17741230011176</v>
+        <v>12.83121044968214</v>
       </c>
       <c r="F12">
-        <v>24.6898762274961</v>
+        <v>36.40559796223498</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.850305158601095</v>
+        <v>10.12925452808307</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.28717572537936</v>
+        <v>10.96152957711771</v>
       </c>
       <c r="M12">
-        <v>15.69011189599535</v>
+        <v>17.37529927681542</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.06991925375242</v>
+        <v>27.99719315660433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.21667345217317</v>
+        <v>20.21631150781793</v>
       </c>
       <c r="C13">
-        <v>14.8070503098224</v>
+        <v>10.78785154747384</v>
       </c>
       <c r="D13">
-        <v>5.058413060559404</v>
+        <v>8.001925255031688</v>
       </c>
       <c r="E13">
-        <v>7.182473105076173</v>
+        <v>12.83305257517602</v>
       </c>
       <c r="F13">
-        <v>24.67267952000138</v>
+        <v>36.41064810084909</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.854107510967964</v>
+        <v>10.13041605283715</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.279019834426875</v>
+        <v>10.96082689513922</v>
       </c>
       <c r="M13">
-        <v>15.65592320671566</v>
+        <v>17.36765562918291</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.06294372282477</v>
+        <v>28.00213769526479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97328873904095</v>
+        <v>20.12697741001235</v>
       </c>
       <c r="C14">
-        <v>14.71026797033545</v>
+        <v>10.74440972975689</v>
       </c>
       <c r="D14">
-        <v>5.044861416304388</v>
+        <v>8.001374693285971</v>
       </c>
       <c r="E14">
-        <v>7.199024159957388</v>
+        <v>12.8390895052064</v>
       </c>
       <c r="F14">
-        <v>24.61744119782748</v>
+        <v>36.42735385899771</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.866526747933603</v>
+        <v>10.13422090270696</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.252422453790302</v>
+        <v>10.95856015026634</v>
       </c>
       <c r="M14">
-        <v>15.54403692709359</v>
+        <v>17.3427464445441</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.0408898739653</v>
+        <v>28.01843692046555</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.82326149565721</v>
+        <v>20.07208859522193</v>
       </c>
       <c r="C15">
-        <v>14.650712232532</v>
+        <v>10.71769999609094</v>
       </c>
       <c r="D15">
-        <v>5.036574131205037</v>
+        <v>8.001049966327995</v>
       </c>
       <c r="E15">
-        <v>7.209198106221917</v>
+        <v>12.84280987150908</v>
       </c>
       <c r="F15">
-        <v>24.58425126777606</v>
+        <v>36.43776798924588</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.874148623685125</v>
+        <v>10.13656445130448</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.236131716056421</v>
+        <v>10.95719083158065</v>
       </c>
       <c r="M15">
-        <v>15.47520489592018</v>
+        <v>17.32750338783007</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.02791131148594</v>
+        <v>28.02855430434786</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.94892487292169</v>
+        <v>19.75503213112887</v>
       </c>
       <c r="C16">
-        <v>14.30525257174408</v>
+        <v>10.56312895429647</v>
       </c>
       <c r="D16">
-        <v>4.989294408443811</v>
+        <v>7.99938133642392</v>
       </c>
       <c r="E16">
-        <v>7.268055369229691</v>
+        <v>12.86447628869599</v>
       </c>
       <c r="F16">
-        <v>24.40380237028948</v>
+        <v>36.5002229972138</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.918059693650376</v>
+        <v>10.15019350632226</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.142805040269197</v>
+        <v>10.94963822069049</v>
       </c>
       <c r="M16">
-        <v>15.07622094374416</v>
+        <v>17.2403905179219</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.9614989083971</v>
+        <v>28.08857814715375</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.39944733583508</v>
+        <v>19.55837856966173</v>
       </c>
       <c r="C17">
-        <v>14.08963536718457</v>
+        <v>10.46699229366429</v>
       </c>
       <c r="D17">
-        <v>4.960483629855541</v>
+        <v>7.998529807932293</v>
       </c>
       <c r="E17">
-        <v>7.304661000288283</v>
+        <v>12.87807770121591</v>
       </c>
       <c r="F17">
-        <v>24.30164771030313</v>
+        <v>36.54100951890884</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.945213581691866</v>
+        <v>10.15873256415321</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.085594622940696</v>
+        <v>10.94526894542923</v>
       </c>
       <c r="M17">
-        <v>14.82745749347711</v>
+        <v>17.18718026079899</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.92768482246382</v>
+        <v>28.12722241004072</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07855664185875</v>
+        <v>19.44451578194957</v>
       </c>
       <c r="C18">
-        <v>13.96427651470183</v>
+        <v>10.41122849539194</v>
       </c>
       <c r="D18">
-        <v>4.943985783423908</v>
+        <v>7.99810351023703</v>
       </c>
       <c r="E18">
-        <v>7.325900343390098</v>
+        <v>12.88601494205505</v>
       </c>
       <c r="F18">
-        <v>24.24596861787062</v>
+        <v>36.56537561050362</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.960914128081369</v>
+        <v>10.16370960132922</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.052711141974109</v>
+        <v>10.94285338564984</v>
       </c>
       <c r="M18">
-        <v>14.68292628735559</v>
+        <v>17.156666806557</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.91071096943018</v>
+        <v>28.15011763520762</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.96907336606635</v>
+        <v>19.40583812493957</v>
       </c>
       <c r="C19">
-        <v>13.92160323091418</v>
+        <v>10.39226870382466</v>
       </c>
       <c r="D19">
-        <v>4.938412702120221</v>
+        <v>7.997970096753646</v>
       </c>
       <c r="E19">
-        <v>7.333123495080142</v>
+        <v>12.8887219685839</v>
       </c>
       <c r="F19">
-        <v>24.22763913246378</v>
+        <v>36.57378111055935</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.966244486212982</v>
+        <v>10.16540602172612</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.041581882432812</v>
+        <v>10.94205231739913</v>
       </c>
       <c r="M19">
-        <v>14.63374380579391</v>
+        <v>17.14635187447151</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90538225560437</v>
+        <v>28.15798417662024</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.45844097289716</v>
+        <v>19.57939145150643</v>
       </c>
       <c r="C20">
-        <v>14.11272737369328</v>
+        <v>10.47727501363752</v>
       </c>
       <c r="D20">
-        <v>4.963543043905617</v>
+        <v>7.9986138897833</v>
       </c>
       <c r="E20">
-        <v>7.300745181382201</v>
+        <v>12.87661800720432</v>
       </c>
       <c r="F20">
-        <v>24.31220229589193</v>
+        <v>36.53657383547843</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.942314548090181</v>
+        <v>10.157816781338</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.091682604917134</v>
+        <v>10.94572397943479</v>
       </c>
       <c r="M20">
-        <v>14.85408926302748</v>
+        <v>17.1928352506028</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.93102661982572</v>
+        <v>28.12303948903075</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.04497391824968</v>
+        <v>20.15325243070728</v>
       </c>
       <c r="C21">
-        <v>14.73875239916049</v>
+        <v>10.75719063129957</v>
       </c>
       <c r="D21">
-        <v>5.048839062564209</v>
+        <v>8.001533801250527</v>
       </c>
       <c r="E21">
-        <v>7.194155230981428</v>
+        <v>12.83731160972661</v>
       </c>
       <c r="F21">
-        <v>24.6335312575435</v>
+        <v>36.42240916565144</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.862875864166615</v>
+        <v>10.13310062436605</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.260234590803467</v>
+        <v>10.95922196487213</v>
       </c>
       <c r="M21">
-        <v>15.57696292453086</v>
+        <v>17.35005988471357</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.04725677510555</v>
+        <v>28.01362158553802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.03939073436167</v>
+        <v>20.52083321655463</v>
       </c>
       <c r="C22">
-        <v>15.13567847231825</v>
+        <v>10.93567578680518</v>
       </c>
       <c r="D22">
-        <v>5.105194293985208</v>
+        <v>8.004002570609982</v>
       </c>
       <c r="E22">
-        <v>7.126105532194978</v>
+        <v>12.81263350792647</v>
       </c>
       <c r="F22">
-        <v>24.87224702732509</v>
+        <v>36.3559088135361</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.811625798005356</v>
+        <v>10.11752802962513</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.370452529149814</v>
+        <v>10.96890118889087</v>
       </c>
       <c r="M22">
-        <v>16.03609690191578</v>
+        <v>17.4534845942982</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.14675417103347</v>
+        <v>27.9480883378817</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51250461913066</v>
+        <v>20.32536723465662</v>
       </c>
       <c r="C23">
-        <v>14.92496027737941</v>
+        <v>10.84083566395278</v>
       </c>
       <c r="D23">
-        <v>5.075062687390869</v>
+        <v>8.00263390070678</v>
       </c>
       <c r="E23">
-        <v>7.162278905281466</v>
+        <v>12.82571241176063</v>
       </c>
       <c r="F23">
-        <v>24.74215222407887</v>
+        <v>36.39065718581939</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.838921129799518</v>
+        <v>10.12578642785771</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.31162809216646</v>
+        <v>10.96365728820521</v>
       </c>
       <c r="M23">
-        <v>15.7922821522304</v>
+        <v>17.39823077528673</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.09142577721141</v>
+        <v>27.98251634024198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43178549579069</v>
+        <v>19.56989402324673</v>
       </c>
       <c r="C24">
-        <v>14.10229182759458</v>
+        <v>10.47262773003472</v>
       </c>
       <c r="D24">
-        <v>4.962159677189881</v>
+        <v>7.998575679299334</v>
       </c>
       <c r="E24">
-        <v>7.302514917619309</v>
+        <v>12.8772775684758</v>
       </c>
       <c r="F24">
-        <v>24.30742107938268</v>
+        <v>36.53857635077588</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.943624921964723</v>
+        <v>10.1582305954555</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.088930203137533</v>
+        <v>10.94551795818425</v>
       </c>
       <c r="M24">
-        <v>14.84205375021435</v>
+        <v>17.19027838563054</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.92950812791508</v>
+        <v>28.12492847558235</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.00175811120455</v>
+        <v>18.72675575454393</v>
       </c>
       <c r="C25">
-        <v>13.16390277740523</v>
+        <v>10.0577444681157</v>
       </c>
       <c r="D25">
-        <v>4.84321013489625</v>
+        <v>7.996627718331036</v>
       </c>
       <c r="E25">
-        <v>7.460865057423856</v>
+        <v>12.93726306837049</v>
       </c>
       <c r="F25">
-        <v>23.95526240519233</v>
+        <v>36.73277286391109</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.059746954824949</v>
+        <v>10.19573686370757</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.849672099864926</v>
+        <v>10.92968630897144</v>
       </c>
       <c r="M25">
-        <v>13.76208973854242</v>
+        <v>16.9695577510326</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.84855600164316</v>
+        <v>28.3040668631896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_91/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08625015614324</v>
+        <v>21.04911601560834</v>
       </c>
       <c r="C2">
-        <v>9.73871745288309</v>
+        <v>12.43122091442304</v>
       </c>
       <c r="D2">
-        <v>7.997305569775516</v>
+        <v>4.758305297469267</v>
       </c>
       <c r="E2">
-        <v>12.98521812365697</v>
+        <v>7.583746059099903</v>
       </c>
       <c r="F2">
-        <v>36.9053411195708</v>
+        <v>23.78851575382746</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.22553441222674</v>
+        <v>6.148323721304149</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.92129140794003</v>
+        <v>6.675145971838758</v>
       </c>
       <c r="M2">
-        <v>16.81086850035017</v>
+        <v>12.92276729078542</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.45777371119366</v>
+        <v>17.86119672746414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.64250469793256</v>
+        <v>19.67797993839952</v>
       </c>
       <c r="C3">
-        <v>9.515025990554125</v>
+        <v>11.91017985311518</v>
       </c>
       <c r="D3">
-        <v>7.999093464023402</v>
+        <v>4.702564112137293</v>
       </c>
       <c r="E3">
-        <v>13.02009814429155</v>
+        <v>7.671043968928274</v>
       </c>
       <c r="F3">
-        <v>37.04063133546499</v>
+        <v>23.72891438083317</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.24710118614294</v>
+        <v>6.210429091485346</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.91766058614509</v>
+        <v>6.558345118579786</v>
       </c>
       <c r="M3">
-        <v>16.70607724895474</v>
+        <v>12.32869039766828</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.57547145604947</v>
+        <v>17.91056053023737</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.36624223006073</v>
+        <v>18.79466055418836</v>
       </c>
       <c r="C4">
-        <v>9.374347221146873</v>
+        <v>11.57885881090342</v>
       </c>
       <c r="D4">
-        <v>8.000850131172871</v>
+        <v>4.669270886588872</v>
       </c>
       <c r="E4">
-        <v>13.04269451355855</v>
+        <v>7.726659784694339</v>
       </c>
       <c r="F4">
-        <v>37.13270598905552</v>
+        <v>23.71713037442148</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.26102417996157</v>
+        <v>6.249634393439521</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.91645423496688</v>
+        <v>6.48751893491811</v>
       </c>
       <c r="M4">
-        <v>16.64321381675922</v>
+        <v>11.9524698513544</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.65438626626341</v>
+        <v>17.95957109765589</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.25286273582088</v>
+        <v>18.42326501688331</v>
       </c>
       <c r="C5">
-        <v>9.316240138901346</v>
+        <v>11.44109961553883</v>
       </c>
       <c r="D5">
-        <v>8.001732233848356</v>
+        <v>4.655944845777631</v>
       </c>
       <c r="E5">
-        <v>13.05220020832665</v>
+        <v>7.74983466911033</v>
       </c>
       <c r="F5">
-        <v>37.17248566416499</v>
+        <v>23.7183321785465</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.26686966170448</v>
+        <v>6.265887218734048</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.91622105425597</v>
+        <v>6.458905682684735</v>
       </c>
       <c r="M5">
-        <v>16.61798642928891</v>
+        <v>11.79645785668102</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.68821249252099</v>
+        <v>17.98403565996769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.23399251259568</v>
+        <v>18.36090637289115</v>
       </c>
       <c r="C6">
-        <v>9.306546200830589</v>
+        <v>11.4180631097081</v>
       </c>
       <c r="D6">
-        <v>8.001888763253007</v>
+        <v>4.653746830946235</v>
       </c>
       <c r="E6">
-        <v>13.05379661286609</v>
+        <v>7.753713831623883</v>
       </c>
       <c r="F6">
-        <v>37.17922727479164</v>
+        <v>23.71888735158702</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.26785068826055</v>
+        <v>6.268602869076792</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.91619797577643</v>
+        <v>6.454170250575943</v>
       </c>
       <c r="M6">
-        <v>16.61382151245772</v>
+        <v>11.77039503187981</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.69392992849943</v>
+        <v>17.98836320565839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.36471618393417</v>
+        <v>18.78969800202888</v>
       </c>
       <c r="C7">
-        <v>9.373566644748927</v>
+        <v>11.57701187209861</v>
       </c>
       <c r="D7">
-        <v>8.000861353655706</v>
+        <v>4.669090181391768</v>
       </c>
       <c r="E7">
-        <v>13.04282150509225</v>
+        <v>7.726970254496851</v>
       </c>
       <c r="F7">
-        <v>37.13323333530997</v>
+        <v>23.71712258851771</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.26110231806805</v>
+        <v>6.249852457150837</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.91645004237555</v>
+        <v>6.487132005056051</v>
       </c>
       <c r="M7">
-        <v>16.64287198890554</v>
+        <v>11.95037648671951</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.65483571090578</v>
+        <v>17.95988312204381</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.93412649843779</v>
+        <v>20.58133054057033</v>
       </c>
       <c r="C8">
-        <v>9.662314023781489</v>
+        <v>12.25400008645001</v>
       </c>
       <c r="D8">
-        <v>7.997785624862069</v>
+        <v>4.738896436335625</v>
       </c>
       <c r="E8">
-        <v>12.99700034779674</v>
+        <v>7.613430941231096</v>
       </c>
       <c r="F8">
-        <v>36.95011639964408</v>
+        <v>23.76267639374045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.2328296327119</v>
+        <v>6.169519212773214</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.91982790202491</v>
+        <v>6.634703352631764</v>
       </c>
       <c r="M8">
-        <v>16.77444057034848</v>
+        <v>12.72040711346115</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.4969738072995</v>
+        <v>17.87420903281994</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.01415583286876</v>
+        <v>23.84545660847013</v>
       </c>
       <c r="C9">
-        <v>10.19972357362075</v>
+        <v>13.48665542254594</v>
       </c>
       <c r="D9">
-        <v>7.996957290825884</v>
+        <v>4.88287943275747</v>
       </c>
       <c r="E9">
-        <v>12.91647073980007</v>
+        <v>7.406560767929848</v>
       </c>
       <c r="F9">
-        <v>36.66274751145447</v>
+        <v>24.05896151436723</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.18276543148545</v>
+        <v>6.020174930519262</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.93451580147221</v>
+        <v>6.930069831864119</v>
       </c>
       <c r="M9">
-        <v>17.04336286279484</v>
+        <v>14.13298546019384</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.24032636897383</v>
+        <v>17.86403783592375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77736692925929</v>
+        <v>26.01096973124248</v>
       </c>
       <c r="C10">
-        <v>10.57403431950749</v>
+        <v>14.32967314330121</v>
       </c>
       <c r="D10">
-        <v>7.999487087165324</v>
+        <v>4.992591701728595</v>
       </c>
       <c r="E10">
-        <v>12.86293971281622</v>
+        <v>7.263903336727676</v>
       </c>
       <c r="F10">
-        <v>36.49569197463768</v>
+        <v>24.41588053092073</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.14922801773621</v>
+        <v>5.914972188210107</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.95014996457146</v>
+        <v>7.149335685645476</v>
       </c>
       <c r="M10">
-        <v>17.24647410129744</v>
+        <v>15.10440865863082</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.08425919176366</v>
+        <v>17.96569786282719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11649095246739</v>
+        <v>26.9446551755894</v>
       </c>
       <c r="C11">
-        <v>10.73930793975749</v>
+        <v>14.69889530778415</v>
       </c>
       <c r="D11">
-        <v>8.001311853207616</v>
+        <v>5.043275829940277</v>
       </c>
       <c r="E11">
-        <v>12.83979961382783</v>
+        <v>7.200967594806016</v>
       </c>
       <c r="F11">
-        <v>36.42933460500375</v>
+        <v>24.61105611574613</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.13466829144124</v>
+        <v>5.867983403737128</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.95829715904492</v>
+        <v>7.249307099182456</v>
       </c>
       <c r="M11">
-        <v>17.33983062985391</v>
+        <v>15.53089180786921</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.02036374992895</v>
+        <v>18.03837666956336</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.24363613226985</v>
+        <v>27.29092627692335</v>
       </c>
       <c r="C12">
-        <v>10.80113195028817</v>
+        <v>14.83661758792439</v>
       </c>
       <c r="D12">
-        <v>8.002099062000861</v>
+        <v>5.062573794036274</v>
       </c>
       <c r="E12">
-        <v>12.83121044968214</v>
+        <v>7.177412300111762</v>
       </c>
       <c r="F12">
-        <v>36.40559796223498</v>
+        <v>24.68987622749623</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.12925452808307</v>
+        <v>5.850305158601127</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.96152957711771</v>
+        <v>7.287175725379382</v>
       </c>
       <c r="M12">
-        <v>17.37529927681542</v>
+        <v>15.69011189599539</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.99719315660433</v>
+        <v>18.0699192537525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.21631150781793</v>
+        <v>27.2166734521732</v>
       </c>
       <c r="C13">
-        <v>10.78785154747384</v>
+        <v>14.80705030982233</v>
       </c>
       <c r="D13">
-        <v>8.001925255031688</v>
+        <v>5.058413060559416</v>
       </c>
       <c r="E13">
-        <v>12.83305257517602</v>
+        <v>7.182473105076046</v>
       </c>
       <c r="F13">
-        <v>36.41064810084909</v>
+        <v>24.67267952000129</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.13041605283715</v>
+        <v>5.854107510967831</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.96082689513922</v>
+        <v>7.279019834426907</v>
       </c>
       <c r="M13">
-        <v>17.36765562918291</v>
+        <v>15.65592320671566</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.00213769526479</v>
+        <v>18.06294372282465</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.12697741001235</v>
+        <v>26.973288739041</v>
       </c>
       <c r="C14">
-        <v>10.74440972975689</v>
+        <v>14.71026797033545</v>
       </c>
       <c r="D14">
-        <v>8.001374693285971</v>
+        <v>5.044861416304378</v>
       </c>
       <c r="E14">
-        <v>12.8390895052064</v>
+        <v>7.199024159957322</v>
       </c>
       <c r="F14">
-        <v>36.42735385899771</v>
+        <v>24.61744119782754</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.13422090270696</v>
+        <v>5.866526747933634</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.95856015026634</v>
+        <v>7.25242245379028</v>
       </c>
       <c r="M14">
-        <v>17.3427464445441</v>
+        <v>15.54403692709358</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.01843692046555</v>
+        <v>18.04088987396537</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07208859522193</v>
+        <v>26.8232614956572</v>
       </c>
       <c r="C15">
-        <v>10.71769999609094</v>
+        <v>14.65071223253193</v>
       </c>
       <c r="D15">
-        <v>8.001049966327995</v>
+        <v>5.036574131204942</v>
       </c>
       <c r="E15">
-        <v>12.84280987150908</v>
+        <v>7.209198106221917</v>
       </c>
       <c r="F15">
-        <v>36.43776798924588</v>
+        <v>24.58425126777606</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.13656445130448</v>
+        <v>5.874148623685159</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.95719083158065</v>
+        <v>7.23613171605643</v>
       </c>
       <c r="M15">
-        <v>17.32750338783007</v>
+        <v>15.47520489592019</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.02855430434786</v>
+        <v>18.02791131148598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.75503213112887</v>
+        <v>25.9489248729217</v>
       </c>
       <c r="C16">
-        <v>10.56312895429647</v>
+        <v>14.30525257174391</v>
       </c>
       <c r="D16">
-        <v>7.99938133642392</v>
+        <v>4.989294408443811</v>
       </c>
       <c r="E16">
-        <v>12.86447628869599</v>
+        <v>7.268055369229627</v>
       </c>
       <c r="F16">
-        <v>36.5002229972138</v>
+        <v>24.40380237028947</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.15019350632226</v>
+        <v>5.918059693650346</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.94963822069049</v>
+        <v>7.142805040269177</v>
       </c>
       <c r="M16">
-        <v>17.2403905179219</v>
+        <v>15.07622094374416</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.08857814715375</v>
+        <v>17.96149890839711</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.55837856966173</v>
+        <v>25.39944733583511</v>
       </c>
       <c r="C17">
-        <v>10.46699229366429</v>
+        <v>14.08963536718442</v>
       </c>
       <c r="D17">
-        <v>7.998529807932293</v>
+        <v>4.960483629855546</v>
       </c>
       <c r="E17">
-        <v>12.87807770121591</v>
+        <v>7.304661000288346</v>
       </c>
       <c r="F17">
-        <v>36.54100951890884</v>
+        <v>24.30164771030307</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.15873256415321</v>
+        <v>5.945213581691868</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.94526894542923</v>
+        <v>7.085594622940738</v>
       </c>
       <c r="M17">
-        <v>17.18718026079899</v>
+        <v>14.82745749347711</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.12722241004072</v>
+        <v>17.92768482246378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.44451578194957</v>
+        <v>25.07855664185872</v>
       </c>
       <c r="C18">
-        <v>10.41122849539194</v>
+        <v>13.96427651470172</v>
       </c>
       <c r="D18">
-        <v>7.99810351023703</v>
+        <v>4.943985783423859</v>
       </c>
       <c r="E18">
-        <v>12.88601494205505</v>
+        <v>7.325900343390162</v>
       </c>
       <c r="F18">
-        <v>36.56537561050362</v>
+        <v>24.24596861787069</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16370960132922</v>
+        <v>5.960914128081468</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.94285338564984</v>
+        <v>7.052711141974147</v>
       </c>
       <c r="M18">
-        <v>17.156666806557</v>
+        <v>14.68292628735561</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.15011763520762</v>
+        <v>17.91071096943027</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.40583812493957</v>
+        <v>24.96907336606635</v>
       </c>
       <c r="C19">
-        <v>10.39226870382466</v>
+        <v>13.92160323091428</v>
       </c>
       <c r="D19">
-        <v>7.997970096753646</v>
+        <v>4.938412702120147</v>
       </c>
       <c r="E19">
-        <v>12.8887219685839</v>
+        <v>7.333123495079945</v>
       </c>
       <c r="F19">
-        <v>36.57378111055935</v>
+        <v>24.22763913246379</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.16540602172612</v>
+        <v>5.966244486212849</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.94205231739913</v>
+        <v>7.041581882432735</v>
       </c>
       <c r="M19">
-        <v>17.14635187447151</v>
+        <v>14.6337438057939</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.15798417662024</v>
+        <v>17.90538225560437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.57939145150643</v>
+        <v>25.45844097289713</v>
       </c>
       <c r="C20">
-        <v>10.47727501363752</v>
+        <v>14.11272737369336</v>
       </c>
       <c r="D20">
-        <v>7.9986138897833</v>
+        <v>4.963543043905617</v>
       </c>
       <c r="E20">
-        <v>12.87661800720432</v>
+        <v>7.300745181382267</v>
       </c>
       <c r="F20">
-        <v>36.53657383547843</v>
+        <v>24.31220229589198</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.157816781338</v>
+        <v>5.942314548090248</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.94572397943479</v>
+        <v>7.091682604917176</v>
       </c>
       <c r="M20">
-        <v>17.1928352506028</v>
+        <v>14.8540892630275</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.12303948903075</v>
+        <v>17.93102661982577</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.15325243070728</v>
+        <v>27.04497391824972</v>
       </c>
       <c r="C21">
-        <v>10.75719063129957</v>
+        <v>14.73875239916042</v>
       </c>
       <c r="D21">
-        <v>8.001533801250527</v>
+        <v>5.048839062564157</v>
       </c>
       <c r="E21">
-        <v>12.83731160972661</v>
+        <v>7.194155230981426</v>
       </c>
       <c r="F21">
-        <v>36.42240916565144</v>
+        <v>24.63353125754334</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.13310062436605</v>
+        <v>5.86287586416665</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.95922196487213</v>
+        <v>7.26023459080354</v>
       </c>
       <c r="M21">
-        <v>17.35005988471357</v>
+        <v>15.57696292453085</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.01362158553802</v>
+        <v>18.04725677510547</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.52083321655463</v>
+        <v>28.03939073436175</v>
       </c>
       <c r="C22">
-        <v>10.93567578680518</v>
+        <v>15.13567847231821</v>
       </c>
       <c r="D22">
-        <v>8.004002570609982</v>
+        <v>5.105194293985208</v>
       </c>
       <c r="E22">
-        <v>12.81263350792647</v>
+        <v>7.126105532194781</v>
       </c>
       <c r="F22">
-        <v>36.3559088135361</v>
+        <v>24.87224702732492</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.11752802962513</v>
+        <v>5.811625798005188</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.96890118889087</v>
+        <v>7.370452529149768</v>
       </c>
       <c r="M22">
-        <v>17.4534845942982</v>
+        <v>16.03609690191576</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.9480883378817</v>
+        <v>18.14675417103329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.32536723465662</v>
+        <v>27.51250461913068</v>
       </c>
       <c r="C23">
-        <v>10.84083566395278</v>
+        <v>14.92496027737946</v>
       </c>
       <c r="D23">
-        <v>8.00263390070678</v>
+        <v>5.075062687390963</v>
       </c>
       <c r="E23">
-        <v>12.82571241176063</v>
+        <v>7.16227890528153</v>
       </c>
       <c r="F23">
-        <v>36.39065718581939</v>
+        <v>24.74215222407884</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.12578642785771</v>
+        <v>5.838921129799551</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.96365728820521</v>
+        <v>7.311628092166476</v>
       </c>
       <c r="M23">
-        <v>17.39823077528673</v>
+        <v>15.79228215223041</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.98251634024198</v>
+        <v>18.0914257772114</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.56989402324673</v>
+        <v>25.43178549579068</v>
       </c>
       <c r="C24">
-        <v>10.47262773003472</v>
+        <v>14.10229182759459</v>
       </c>
       <c r="D24">
-        <v>7.998575679299334</v>
+        <v>4.96215967718969</v>
       </c>
       <c r="E24">
-        <v>12.8772775684758</v>
+        <v>7.302514917619239</v>
       </c>
       <c r="F24">
-        <v>36.53857635077588</v>
+        <v>24.30742107938269</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.1582305954555</v>
+        <v>5.943624921964724</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.94551795818425</v>
+        <v>7.088930203137485</v>
       </c>
       <c r="M24">
-        <v>17.19027838563054</v>
+        <v>14.84205375021435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.12492847558235</v>
+        <v>17.92950812791516</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.72675575454393</v>
+        <v>23.00175811120451</v>
       </c>
       <c r="C25">
-        <v>10.0577444681157</v>
+        <v>13.1639027774056</v>
       </c>
       <c r="D25">
-        <v>7.996627718331036</v>
+        <v>4.843210134896261</v>
       </c>
       <c r="E25">
-        <v>12.93726306837049</v>
+        <v>7.460865057423857</v>
       </c>
       <c r="F25">
-        <v>36.73277286391109</v>
+        <v>23.95526240519249</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.19573686370757</v>
+        <v>6.059746954824882</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.92968630897144</v>
+        <v>6.84967209986479</v>
       </c>
       <c r="M25">
-        <v>16.9695577510326</v>
+        <v>13.76208973854238</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.3040668631896</v>
+        <v>17.84855600164323</v>
       </c>
     </row>
   </sheetData>
